--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value645.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value645.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.268689101135754</v>
+        <v>1.184447169303894</v>
       </c>
       <c r="B1">
-        <v>2.281261300718945</v>
+        <v>2.335700035095215</v>
       </c>
       <c r="C1">
-        <v>2.956228009532536</v>
+        <v>3.722033739089966</v>
       </c>
       <c r="D1">
-        <v>3.413539288863234</v>
+        <v>3.101845264434814</v>
       </c>
       <c r="E1">
-        <v>1.682866865419799</v>
+        <v>1.142736673355103</v>
       </c>
     </row>
   </sheetData>
